--- a/input_data/sleeve/sleeve_unsh.xlsx
+++ b/input_data/sleeve/sleeve_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/sleeve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/sleeve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D0223-ECF1-A54B-9CE8-C563E9854067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF64CD-F24A-8D4D-8C2B-77B15D5712C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/input_data/sleeve/sleeve_unsh.xlsx
+++ b/input_data/sleeve/sleeve_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/sleeve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/sleeve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF64CD-F24A-8D4D-8C2B-77B15D5712C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3792E1A-9D27-A04C-B44F-88C1025B845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,13 +668,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -684,13 +684,13 @@
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -700,13 +700,13 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/sleeve/sleeve_unsh.xlsx
+++ b/input_data/sleeve/sleeve_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/sleeve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/sleeve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3792E1A-9D27-A04C-B44F-88C1025B845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1E753-08BB-454A-8D14-3DCA7A892120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,13 +668,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -684,13 +684,13 @@
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -700,13 +700,13 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="12">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
